--- a/Metabolism Data/All_trans.xlsx
+++ b/Metabolism Data/All_trans.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F5E80763B38776D3C7D477921D0C92F741F00A75" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,16 @@
     <sheet name="All" sheetId="5" r:id="rId5"/>
     <sheet name="Rexport" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -395,7 +402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -854,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1197,7 +1204,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,7 +1213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3345,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:V31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:V31">
     <sortCondition ref="D1:D31"/>
     <sortCondition ref="C1:C31"/>
     <sortCondition ref="B1:B31"/>
@@ -3348,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4081,7 +4088,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
     <sortCondition ref="C2:C31"/>
     <sortCondition ref="B2:B31"/>
     <sortCondition ref="A2:A31"/>
@@ -4092,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4815,7 +4822,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H31">
     <sortCondition ref="C1:C31"/>
     <sortCondition ref="B1:B31"/>
     <sortCondition ref="A1:A31"/>
@@ -4825,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8912,10 +8919,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
